--- a/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -69,7 +72,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -67,253 +70,157 @@
   <dimension ref="A1:A49"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="true"/>
+    <col min="1" max="1" width="11.44140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0">
-        <v>75.409836065573771</v>
-      </c>
+      <c r="A2" s="0"/>
     </row>
     <row r="3">
-      <c r="A3" s="0">
-        <v>75.188303057155508</v>
-      </c>
+      <c r="A3" s="0"/>
     </row>
     <row r="4">
-      <c r="A4" s="0">
-        <v>75.409836065573771</v>
-      </c>
+      <c r="A4" s="0"/>
     </row>
     <row r="5">
-      <c r="A5" s="0">
-        <v>74.479397430217091</v>
-      </c>
+      <c r="A5" s="0"/>
     </row>
     <row r="6">
-      <c r="A6" s="0">
-        <v>72.707133362871062</v>
-      </c>
+      <c r="A6" s="0"/>
     </row>
     <row r="7">
-      <c r="A7" s="0">
-        <v>74.479397430217091</v>
-      </c>
+      <c r="A7" s="0"/>
     </row>
     <row r="8">
-      <c r="A8" s="0">
-        <v>75.011076650420918</v>
-      </c>
+      <c r="A8" s="0"/>
     </row>
     <row r="9">
-      <c r="A9" s="0">
-        <v>75.321222862206469</v>
-      </c>
+      <c r="A9" s="0"/>
     </row>
     <row r="10">
-      <c r="A10" s="0">
-        <v>74.656623836951709</v>
-      </c>
+      <c r="A10" s="0"/>
     </row>
     <row r="11">
-      <c r="A11" s="0">
-        <v>74.96677004873726</v>
-      </c>
+      <c r="A11" s="0"/>
     </row>
     <row r="12">
-      <c r="A12" s="0">
-        <v>75.631369073992033</v>
-      </c>
+      <c r="A12" s="0"/>
     </row>
     <row r="13">
-      <c r="A13" s="0">
-        <v>78.378378378378372</v>
-      </c>
+      <c r="A13" s="0"/>
     </row>
     <row r="14">
-      <c r="A14" s="0">
-        <v>74.302171023482501</v>
-      </c>
+      <c r="A14" s="0"/>
     </row>
     <row r="15">
-      <c r="A15" s="0">
-        <v>75.409836065573771</v>
-      </c>
+      <c r="A15" s="0"/>
     </row>
     <row r="16">
-      <c r="A16" s="0">
-        <v>74.257864421798843</v>
-      </c>
+      <c r="A16" s="0"/>
     </row>
     <row r="17">
-      <c r="A17" s="0">
-        <v>76.295968099246792</v>
-      </c>
+      <c r="A17" s="0"/>
     </row>
     <row r="18">
-      <c r="A18" s="0">
-        <v>77.802392556490915</v>
-      </c>
+      <c r="A18" s="0"/>
     </row>
     <row r="19">
-      <c r="A19" s="0">
-        <v>77.447939743021706</v>
-      </c>
+      <c r="A19" s="0"/>
     </row>
     <row r="20">
-      <c r="A20" s="0">
-        <v>76.561807709348699</v>
-      </c>
+      <c r="A20" s="0"/>
     </row>
     <row r="21">
-      <c r="A21" s="0">
-        <v>76.473194505981397</v>
-      </c>
+      <c r="A21" s="0"/>
     </row>
     <row r="22">
-      <c r="A22" s="0">
-        <v>76.517501107665041</v>
-      </c>
+      <c r="A22" s="0"/>
     </row>
     <row r="23">
-      <c r="A23" s="0">
-        <v>76.473194505981397</v>
-      </c>
+      <c r="A23" s="0"/>
     </row>
     <row r="24">
-      <c r="A24" s="0">
-        <v>77.226406734603458</v>
-      </c>
+      <c r="A24" s="0"/>
     </row>
     <row r="25">
-      <c r="A25" s="0">
-        <v>76.871953921134249</v>
-      </c>
+      <c r="A25" s="0"/>
     </row>
     <row r="26">
-      <c r="A26" s="0">
-        <v>75.011076650420918</v>
-      </c>
+      <c r="A26" s="0"/>
     </row>
     <row r="27">
-      <c r="A27" s="0">
-        <v>75.631369073992033</v>
-      </c>
+      <c r="A27" s="0"/>
     </row>
     <row r="28">
-      <c r="A28" s="0">
-        <v>75.099689853788206</v>
-      </c>
+      <c r="A28" s="0"/>
     </row>
     <row r="29">
-      <c r="A29" s="0">
-        <v>82.188746123172351</v>
-      </c>
+      <c r="A29" s="0"/>
     </row>
     <row r="30">
-      <c r="A30" s="0">
-        <v>81.834293309703142</v>
-      </c>
+      <c r="A30" s="0"/>
     </row>
     <row r="31">
-      <c r="A31" s="0">
-        <v>78.821444395214897</v>
-      </c>
+      <c r="A31" s="0"/>
     </row>
     <row r="32">
-      <c r="A32" s="0">
-        <v>75.321222862206469</v>
-      </c>
+      <c r="A32" s="0"/>
     </row>
     <row r="33">
-      <c r="A33" s="0">
-        <v>75.232609658839166</v>
-      </c>
+      <c r="A33" s="0"/>
     </row>
     <row r="34">
-      <c r="A34" s="0">
-        <v>75.365529463890127</v>
-      </c>
+      <c r="A34" s="0"/>
     </row>
     <row r="35">
-      <c r="A35" s="0">
-        <v>77.1821001329198</v>
-      </c>
+      <c r="A35" s="0"/>
     </row>
     <row r="36">
-      <c r="A36" s="0">
-        <v>77.891005759858217</v>
-      </c>
+      <c r="A36" s="0"/>
     </row>
     <row r="37">
-      <c r="A37" s="0">
-        <v>80.416482055826322</v>
-      </c>
+      <c r="A37" s="0"/>
     </row>
     <row r="38">
-      <c r="A38" s="0">
-        <v>77.1821001329198</v>
-      </c>
+      <c r="A38" s="0"/>
     </row>
     <row r="39">
-      <c r="A39" s="0">
-        <v>76.739034116083289</v>
-      </c>
+      <c r="A39" s="0"/>
     </row>
     <row r="40">
-      <c r="A40" s="0">
-        <v>77.580859548072667</v>
-      </c>
+      <c r="A40" s="0"/>
     </row>
     <row r="41">
-      <c r="A41" s="0">
-        <v>75.631369073992033</v>
-      </c>
+      <c r="A41" s="0"/>
     </row>
     <row r="42">
-      <c r="A42" s="0">
-        <v>75.454142667257415</v>
-      </c>
+      <c r="A42" s="0"/>
     </row>
     <row r="43">
-      <c r="A43" s="0">
-        <v>75.897208684093926</v>
-      </c>
+      <c r="A43" s="0"/>
     </row>
     <row r="44">
-      <c r="A44" s="0">
-        <v>75.631369073992033</v>
-      </c>
+      <c r="A44" s="0"/>
     </row>
     <row r="45">
-      <c r="A45" s="0">
-        <v>75.276916260522825</v>
-      </c>
+      <c r="A45" s="0"/>
     </row>
     <row r="46">
-      <c r="A46" s="0">
-        <v>75.365529463890127</v>
-      </c>
+      <c r="A46" s="0"/>
     </row>
     <row r="47">
-      <c r="A47" s="0">
-        <v>74.124944616747896</v>
-      </c>
+      <c r="A47" s="0"/>
     </row>
     <row r="48">
-      <c r="A48" s="0">
-        <v>73.238812583074875</v>
-      </c>
+      <c r="A48" s="0"/>
     </row>
     <row r="49">
-      <c r="A49" s="0">
-        <v>75.675675675675677</v>
-      </c>
+      <c r="A49" s="0"/>
     </row>
   </sheetData>
 </worksheet>

--- a/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -70,157 +73,253 @@
   <dimension ref="A1:A49"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="true"/>
+    <col min="1" max="1" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0"/>
+      <c r="A2" s="0">
+        <v>85.533184190902318</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="0"/>
+      <c r="A3" s="0">
+        <v>84.041759880686044</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="0"/>
+      <c r="A4" s="0">
+        <v>84.116331096196873</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="0"/>
+      <c r="A5" s="0">
+        <v>89.709172259507824</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="0"/>
+      <c r="A6" s="0">
+        <v>87.24832214765101</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="0"/>
+      <c r="A7" s="0">
+        <v>89.709172259507824</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="0"/>
+      <c r="A8" s="0">
+        <v>87.994034302759133</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="0"/>
+      <c r="A9" s="0">
+        <v>87.322893363161825</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="0"/>
+      <c r="A10" s="0">
+        <v>87.994034302759133</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="0"/>
+      <c r="A11" s="0">
+        <v>87.844891871737502</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="0"/>
+      <c r="A12" s="0">
+        <v>89.858314690529454</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="0"/>
+      <c r="A13" s="0">
+        <v>89.410887397464577</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="0"/>
+      <c r="A14" s="0">
+        <v>87.695749440715886</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="0"/>
+      <c r="A15" s="0">
+        <v>87.770320656226701</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="0"/>
+      <c r="A16" s="0">
+        <v>87.770320656226701</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="0"/>
+      <c r="A17" s="0">
+        <v>87.24832214765101</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="0"/>
+      <c r="A18" s="0">
+        <v>89.709172259507824</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="0"/>
+      <c r="A19" s="0">
+        <v>89.709172259507824</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="0"/>
+      <c r="A20" s="0">
+        <v>84.936614466815811</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="0"/>
+      <c r="A21" s="0">
+        <v>85.011185682326612</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="0"/>
+      <c r="A22" s="0">
+        <v>85.011185682326612</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="0"/>
+      <c r="A23" s="0">
+        <v>83.892617449664428</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="0"/>
+      <c r="A24" s="0">
+        <v>84.862043251304996</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="0"/>
+      <c r="A25" s="0">
+        <v>84.56375838926175</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="0"/>
+      <c r="A26" s="0">
+        <v>87.24832214765101</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="0"/>
+      <c r="A27" s="0">
+        <v>86.950037285607749</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="0"/>
+      <c r="A28" s="0">
+        <v>87.24832214765101</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="0"/>
+      <c r="A29" s="0">
+        <v>87.994034302759133</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="0"/>
+      <c r="A30" s="0">
+        <v>87.994034302759133</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="0"/>
+      <c r="A31" s="0">
+        <v>88.217747949291564</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="0"/>
+      <c r="A32" s="0">
+        <v>85.234899328859058</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="0"/>
+      <c r="A33" s="0">
+        <v>85.234899328859058</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="0"/>
+      <c r="A34" s="0">
+        <v>85.160328113348243</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="0"/>
+      <c r="A35" s="0">
+        <v>82.401193139448168</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="0"/>
+      <c r="A36" s="0">
+        <v>82.326621923937353</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="0"/>
+      <c r="A37" s="0">
+        <v>85.533184190902318</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="0"/>
+      <c r="A38" s="0">
+        <v>82.177479492915737</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="0"/>
+      <c r="A39" s="0">
+        <v>82.252050708426552</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="0"/>
+      <c r="A40" s="0">
+        <v>84.340044742729305</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="0"/>
+      <c r="A41" s="0">
+        <v>86.950037285607749</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="0"/>
+      <c r="A42" s="0">
+        <v>86.502609992542872</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="0"/>
+      <c r="A43" s="0">
+        <v>86.800894854586133</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="0"/>
+      <c r="A44" s="0">
+        <v>86.800894854586133</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="0"/>
+      <c r="A45" s="0">
+        <v>85.980611483967181</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="0"/>
+      <c r="A46" s="0">
+        <v>86.577181208053688</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="0"/>
+      <c r="A47" s="0">
+        <v>86.428038777032071</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="0"/>
+      <c r="A48" s="0">
+        <v>82.401193139448168</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="0"/>
+      <c r="A49" s="0">
+        <v>89.112602535421331</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -78,247 +81,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>85.533184190902318</v>
+        <v>75.409836065573771</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>84.041759880686044</v>
+        <v>75.188303057155508</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>84.116331096196873</v>
+        <v>75.409836065573771</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>89.709172259507824</v>
+        <v>74.479397430217091</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>87.24832214765101</v>
+        <v>72.707133362871062</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>89.709172259507824</v>
+        <v>74.479397430217091</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>87.994034302759133</v>
+        <v>75.011076650420918</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>87.322893363161825</v>
+        <v>75.321222862206469</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>87.994034302759133</v>
+        <v>74.656623836951709</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>87.844891871737502</v>
+        <v>74.96677004873726</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>89.858314690529454</v>
+        <v>75.631369073992033</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>89.410887397464577</v>
+        <v>78.378378378378372</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>87.695749440715886</v>
+        <v>74.302171023482501</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>87.770320656226701</v>
+        <v>75.409836065573771</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>87.770320656226701</v>
+        <v>74.257864421798843</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>87.24832214765101</v>
+        <v>76.295968099246792</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>89.709172259507824</v>
+        <v>77.802392556490915</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>89.709172259507824</v>
+        <v>77.447939743021706</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>84.936614466815811</v>
+        <v>76.561807709348699</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>85.011185682326612</v>
+        <v>76.473194505981397</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>85.011185682326612</v>
+        <v>76.517501107665041</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>83.892617449664428</v>
+        <v>76.473194505981397</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>84.862043251304996</v>
+        <v>77.226406734603458</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>84.56375838926175</v>
+        <v>76.871953921134249</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>87.24832214765101</v>
+        <v>75.011076650420918</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>86.950037285607749</v>
+        <v>75.631369073992033</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>87.24832214765101</v>
+        <v>75.099689853788206</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>87.994034302759133</v>
+        <v>82.188746123172351</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>87.994034302759133</v>
+        <v>81.834293309703142</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>88.217747949291564</v>
+        <v>78.821444395214897</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>85.234899328859058</v>
+        <v>75.321222862206469</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>85.234899328859058</v>
+        <v>75.232609658839166</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>85.160328113348243</v>
+        <v>75.365529463890127</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>82.401193139448168</v>
+        <v>77.1821001329198</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>82.326621923937353</v>
+        <v>77.891005759858217</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>85.533184190902318</v>
+        <v>80.416482055826322</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>82.177479492915737</v>
+        <v>77.1821001329198</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>82.252050708426552</v>
+        <v>76.739034116083289</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>84.340044742729305</v>
+        <v>77.580859548072667</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>86.950037285607749</v>
+        <v>75.631369073992033</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>86.502609992542872</v>
+        <v>75.454142667257415</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>86.800894854586133</v>
+        <v>75.897208684093926</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>86.800894854586133</v>
+        <v>75.631369073992033</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>85.980611483967181</v>
+        <v>75.276916260522825</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>86.577181208053688</v>
+        <v>75.365529463890127</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>86.428038777032071</v>
+        <v>74.124944616747896</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>82.401193139448168</v>
+        <v>73.238812583074875</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>89.112602535421331</v>
+        <v>75.675675675675677</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -81,7 +87,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -87,247 +90,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>75.409836065573771</v>
+        <v>85.533184190902318</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>75.188303057155508</v>
+        <v>84.041759880686044</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>75.409836065573771</v>
+        <v>84.116331096196873</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>74.479397430217091</v>
+        <v>89.709172259507824</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>72.707133362871062</v>
+        <v>87.24832214765101</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>74.479397430217091</v>
+        <v>89.709172259507824</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>75.011076650420918</v>
+        <v>87.994034302759133</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>75.321222862206469</v>
+        <v>87.322893363161825</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>74.656623836951709</v>
+        <v>87.994034302759133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>74.96677004873726</v>
+        <v>87.844891871737502</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>75.631369073992033</v>
+        <v>89.858314690529454</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>78.378378378378372</v>
+        <v>89.410887397464577</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>74.302171023482501</v>
+        <v>87.695749440715886</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>75.409836065573771</v>
+        <v>87.770320656226701</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>74.257864421798843</v>
+        <v>87.770320656226701</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>76.295968099246792</v>
+        <v>87.24832214765101</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>77.802392556490915</v>
+        <v>89.709172259507824</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>77.447939743021706</v>
+        <v>89.709172259507824</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>76.561807709348699</v>
+        <v>84.936614466815811</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>76.473194505981397</v>
+        <v>85.011185682326612</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>76.517501107665041</v>
+        <v>85.011185682326612</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>76.473194505981397</v>
+        <v>83.892617449664428</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>77.226406734603458</v>
+        <v>84.862043251304996</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>76.871953921134249</v>
+        <v>84.56375838926175</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>75.011076650420918</v>
+        <v>87.24832214765101</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>75.631369073992033</v>
+        <v>86.950037285607749</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>75.099689853788206</v>
+        <v>87.24832214765101</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>82.188746123172351</v>
+        <v>87.994034302759133</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>81.834293309703142</v>
+        <v>87.994034302759133</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>78.821444395214897</v>
+        <v>88.217747949291564</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>75.321222862206469</v>
+        <v>85.234899328859058</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>75.232609658839166</v>
+        <v>85.234899328859058</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>75.365529463890127</v>
+        <v>85.160328113348243</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>77.1821001329198</v>
+        <v>82.401193139448168</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>77.891005759858217</v>
+        <v>82.326621923937353</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>80.416482055826322</v>
+        <v>85.533184190902318</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>77.1821001329198</v>
+        <v>82.177479492915737</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>76.739034116083289</v>
+        <v>82.252050708426552</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>77.580859548072667</v>
+        <v>84.340044742729305</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>75.631369073992033</v>
+        <v>86.950037285607749</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>75.454142667257415</v>
+        <v>86.502609992542872</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>75.897208684093926</v>
+        <v>86.800894854586133</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>75.631369073992033</v>
+        <v>86.800894854586133</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>75.276916260522825</v>
+        <v>85.980611483967181</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>75.365529463890127</v>
+        <v>86.577181208053688</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>74.124944616747896</v>
+        <v>86.428038777032071</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>73.238812583074875</v>
+        <v>82.401193139448168</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>75.675675675675677</v>
+        <v>89.112602535421331</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -90,7 +93,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -88,253 +91,157 @@
   <dimension ref="A1:A49"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="true"/>
+    <col min="1" max="1" width="11.44140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0">
-        <v>85.533184190902318</v>
-      </c>
+      <c r="A2" s="0"/>
     </row>
     <row r="3">
-      <c r="A3" s="0">
-        <v>84.041759880686044</v>
-      </c>
+      <c r="A3" s="0"/>
     </row>
     <row r="4">
-      <c r="A4" s="0">
-        <v>84.116331096196873</v>
-      </c>
+      <c r="A4" s="0"/>
     </row>
     <row r="5">
-      <c r="A5" s="0">
-        <v>89.709172259507824</v>
-      </c>
+      <c r="A5" s="0"/>
     </row>
     <row r="6">
-      <c r="A6" s="0">
-        <v>87.24832214765101</v>
-      </c>
+      <c r="A6" s="0"/>
     </row>
     <row r="7">
-      <c r="A7" s="0">
-        <v>89.709172259507824</v>
-      </c>
+      <c r="A7" s="0"/>
     </row>
     <row r="8">
-      <c r="A8" s="0">
-        <v>87.994034302759133</v>
-      </c>
+      <c r="A8" s="0"/>
     </row>
     <row r="9">
-      <c r="A9" s="0">
-        <v>87.322893363161825</v>
-      </c>
+      <c r="A9" s="0"/>
     </row>
     <row r="10">
-      <c r="A10" s="0">
-        <v>87.994034302759133</v>
-      </c>
+      <c r="A10" s="0"/>
     </row>
     <row r="11">
-      <c r="A11" s="0">
-        <v>87.844891871737502</v>
-      </c>
+      <c r="A11" s="0"/>
     </row>
     <row r="12">
-      <c r="A12" s="0">
-        <v>89.858314690529454</v>
-      </c>
+      <c r="A12" s="0"/>
     </row>
     <row r="13">
-      <c r="A13" s="0">
-        <v>89.410887397464577</v>
-      </c>
+      <c r="A13" s="0"/>
     </row>
     <row r="14">
-      <c r="A14" s="0">
-        <v>87.695749440715886</v>
-      </c>
+      <c r="A14" s="0"/>
     </row>
     <row r="15">
-      <c r="A15" s="0">
-        <v>87.770320656226701</v>
-      </c>
+      <c r="A15" s="0"/>
     </row>
     <row r="16">
-      <c r="A16" s="0">
-        <v>87.770320656226701</v>
-      </c>
+      <c r="A16" s="0"/>
     </row>
     <row r="17">
-      <c r="A17" s="0">
-        <v>87.24832214765101</v>
-      </c>
+      <c r="A17" s="0"/>
     </row>
     <row r="18">
-      <c r="A18" s="0">
-        <v>89.709172259507824</v>
-      </c>
+      <c r="A18" s="0"/>
     </row>
     <row r="19">
-      <c r="A19" s="0">
-        <v>89.709172259507824</v>
-      </c>
+      <c r="A19" s="0"/>
     </row>
     <row r="20">
-      <c r="A20" s="0">
-        <v>84.936614466815811</v>
-      </c>
+      <c r="A20" s="0"/>
     </row>
     <row r="21">
-      <c r="A21" s="0">
-        <v>85.011185682326612</v>
-      </c>
+      <c r="A21" s="0"/>
     </row>
     <row r="22">
-      <c r="A22" s="0">
-        <v>85.011185682326612</v>
-      </c>
+      <c r="A22" s="0"/>
     </row>
     <row r="23">
-      <c r="A23" s="0">
-        <v>83.892617449664428</v>
-      </c>
+      <c r="A23" s="0"/>
     </row>
     <row r="24">
-      <c r="A24" s="0">
-        <v>84.862043251304996</v>
-      </c>
+      <c r="A24" s="0"/>
     </row>
     <row r="25">
-      <c r="A25" s="0">
-        <v>84.56375838926175</v>
-      </c>
+      <c r="A25" s="0"/>
     </row>
     <row r="26">
-      <c r="A26" s="0">
-        <v>87.24832214765101</v>
-      </c>
+      <c r="A26" s="0"/>
     </row>
     <row r="27">
-      <c r="A27" s="0">
-        <v>86.950037285607749</v>
-      </c>
+      <c r="A27" s="0"/>
     </row>
     <row r="28">
-      <c r="A28" s="0">
-        <v>87.24832214765101</v>
-      </c>
+      <c r="A28" s="0"/>
     </row>
     <row r="29">
-      <c r="A29" s="0">
-        <v>87.994034302759133</v>
-      </c>
+      <c r="A29" s="0"/>
     </row>
     <row r="30">
-      <c r="A30" s="0">
-        <v>87.994034302759133</v>
-      </c>
+      <c r="A30" s="0"/>
     </row>
     <row r="31">
-      <c r="A31" s="0">
-        <v>88.217747949291564</v>
-      </c>
+      <c r="A31" s="0"/>
     </row>
     <row r="32">
-      <c r="A32" s="0">
-        <v>85.234899328859058</v>
-      </c>
+      <c r="A32" s="0"/>
     </row>
     <row r="33">
-      <c r="A33" s="0">
-        <v>85.234899328859058</v>
-      </c>
+      <c r="A33" s="0"/>
     </row>
     <row r="34">
-      <c r="A34" s="0">
-        <v>85.160328113348243</v>
-      </c>
+      <c r="A34" s="0"/>
     </row>
     <row r="35">
-      <c r="A35" s="0">
-        <v>82.401193139448168</v>
-      </c>
+      <c r="A35" s="0"/>
     </row>
     <row r="36">
-      <c r="A36" s="0">
-        <v>82.326621923937353</v>
-      </c>
+      <c r="A36" s="0"/>
     </row>
     <row r="37">
-      <c r="A37" s="0">
-        <v>85.533184190902318</v>
-      </c>
+      <c r="A37" s="0"/>
     </row>
     <row r="38">
-      <c r="A38" s="0">
-        <v>82.177479492915737</v>
-      </c>
+      <c r="A38" s="0"/>
     </row>
     <row r="39">
-      <c r="A39" s="0">
-        <v>82.252050708426552</v>
-      </c>
+      <c r="A39" s="0"/>
     </row>
     <row r="40">
-      <c r="A40" s="0">
-        <v>84.340044742729305</v>
-      </c>
+      <c r="A40" s="0"/>
     </row>
     <row r="41">
-      <c r="A41" s="0">
-        <v>86.950037285607749</v>
-      </c>
+      <c r="A41" s="0"/>
     </row>
     <row r="42">
-      <c r="A42" s="0">
-        <v>86.502609992542872</v>
-      </c>
+      <c r="A42" s="0"/>
     </row>
     <row r="43">
-      <c r="A43" s="0">
-        <v>86.800894854586133</v>
-      </c>
+      <c r="A43" s="0"/>
     </row>
     <row r="44">
-      <c r="A44" s="0">
-        <v>86.800894854586133</v>
-      </c>
+      <c r="A44" s="0"/>
     </row>
     <row r="45">
-      <c r="A45" s="0">
-        <v>85.980611483967181</v>
-      </c>
+      <c r="A45" s="0"/>
     </row>
     <row r="46">
-      <c r="A46" s="0">
-        <v>86.577181208053688</v>
-      </c>
+      <c r="A46" s="0"/>
     </row>
     <row r="47">
-      <c r="A47" s="0">
-        <v>86.428038777032071</v>
-      </c>
+      <c r="A47" s="0"/>
     </row>
     <row r="48">
-      <c r="A48" s="0">
-        <v>82.401193139448168</v>
-      </c>
+      <c r="A48" s="0"/>
     </row>
     <row r="49">
-      <c r="A49" s="0">
-        <v>89.112602535421331</v>
-      </c>
+      <c r="A49" s="0"/>
     </row>
   </sheetData>
 </worksheet>

--- a/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -96,7 +99,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -99,7 +105,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
@@ -13,7 +13,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -100,157 +115,253 @@
   <dimension ref="A1:A49"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="true"/>
+    <col min="1" max="1" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0"/>
+      <c r="A2" s="0">
+        <v>73.953677366924026</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="0"/>
+      <c r="A3" s="0">
+        <v>73.466070702966263</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="0"/>
+      <c r="A4" s="0">
+        <v>73.506704591629429</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="0"/>
+      <c r="A5" s="0">
+        <v>69.07761072734661</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="0"/>
+      <c r="A6" s="0">
+        <v>71.759447379114178</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="0"/>
+      <c r="A7" s="0">
+        <v>73.01909792767168</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="0"/>
+      <c r="A8" s="0">
+        <v>73.709874034945145</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="0"/>
+      <c r="A9" s="0">
+        <v>74.238114587566031</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="0"/>
+      <c r="A10" s="0">
+        <v>73.303535148313699</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="0"/>
+      <c r="A11" s="0">
+        <v>72.978464039008529</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="0"/>
+      <c r="A12" s="0">
+        <v>74.11621292157659</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="0"/>
+      <c r="A13" s="0">
+        <v>76.879317350670462</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="0"/>
+      <c r="A14" s="0">
+        <v>72.694026818366524</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="0"/>
+      <c r="A15" s="0">
+        <v>73.466070702966263</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="0"/>
+      <c r="A16" s="0">
+        <v>72.734660707029661</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="0"/>
+      <c r="A17" s="0">
+        <v>75.050792360828936</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="0"/>
+      <c r="A18" s="0">
+        <v>76.310442909386438</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="0"/>
+      <c r="A19" s="0">
+        <v>76.066639577407557</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="0"/>
+      <c r="A20" s="0">
+        <v>75.172694026818363</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="0"/>
+      <c r="A21" s="0">
+        <v>72.490857375050794</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="0"/>
+      <c r="A22" s="0">
+        <v>75.253961804144652</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="0"/>
+      <c r="A23" s="0">
+        <v>75.94473791141813</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="0"/>
+      <c r="A24" s="0">
+        <v>75.61966680211296</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="0"/>
+      <c r="A25" s="0">
+        <v>75.863470134091841</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="0"/>
+      <c r="A26" s="0">
+        <v>73.750507923608282</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="0"/>
+      <c r="A27" s="0">
+        <v>73.750507923608282</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="0"/>
+      <c r="A28" s="0">
+        <v>74.034945144250315</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="0"/>
+      <c r="A29" s="0">
+        <v>80.130028443722068</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="0"/>
+      <c r="A30" s="0">
+        <v>79.479886225111741</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="0"/>
+      <c r="A31" s="0">
+        <v>77.529459569280775</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="0"/>
+      <c r="A32" s="0">
+        <v>71.515644047135311</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="0"/>
+      <c r="A33" s="0">
+        <v>73.994311255587164</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="0"/>
+      <c r="A34" s="0">
+        <v>73.994311255587164</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="0"/>
+      <c r="A35" s="0">
+        <v>75.497765136123533</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="0"/>
+      <c r="A36" s="0">
+        <v>75.61966680211296</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="0"/>
+      <c r="A37" s="0">
+        <v>79.195449004469737</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="0"/>
+      <c r="A38" s="0">
+        <v>75.538399024786671</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="0"/>
+      <c r="A39" s="0">
+        <v>75.416497358797244</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="0"/>
+      <c r="A40" s="0">
+        <v>76.229175132060135</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="0"/>
+      <c r="A41" s="0">
+        <v>74.603819585534339</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="0"/>
+      <c r="A42" s="0">
+        <v>74.31938236489232</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="0"/>
+      <c r="A43" s="0">
+        <v>74.725721251523765</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="0"/>
+      <c r="A44" s="0">
+        <v>73.91304347826086</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="0"/>
+      <c r="A45" s="0">
+        <v>74.197480698902879</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="0"/>
+      <c r="A46" s="0">
+        <v>73.262901259650548</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="0"/>
+      <c r="A47" s="0">
+        <v>72.81592848435595</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="0"/>
+      <c r="A48" s="0">
+        <v>72.450223486387642</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="0"/>
+      <c r="A49" s="0">
+        <v>72.978464039008529</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -120,247 +123,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>73.953677366924026</v>
+        <v>86.227951153324284</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>73.466070702966263</v>
+        <v>84.396200814111268</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>73.506704591629429</v>
+        <v>84.871099050203526</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>69.07761072734661</v>
+        <v>83.175033921302571</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>71.759447379114178</v>
+        <v>87.449118046132966</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>73.01909792767168</v>
+        <v>89.620081411126179</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>73.709874034945145</v>
+        <v>87.788331071913163</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>74.238114587566031</v>
+        <v>87.856173677069208</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>73.303535148313699</v>
+        <v>87.924016282225239</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>72.978464039008529</v>
+        <v>87.924016282225239</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>74.11621292157659</v>
+        <v>89.552238805970148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>76.879317350670462</v>
+        <v>89.687924016282224</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>72.694026818366524</v>
+        <v>88.059701492537314</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>73.466070702966263</v>
+        <v>88.12754409769336</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>72.734660707029661</v>
+        <v>88.059701492537314</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>75.050792360828936</v>
+        <v>87.652645861601087</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>76.310442909386438</v>
+        <v>89.891451831750331</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>76.066639577407557</v>
+        <v>89.891451831750331</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>75.172694026818363</v>
+        <v>85.413839891451843</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>72.490857375050794</v>
+        <v>80.936227951153327</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>75.253961804144652</v>
+        <v>85.61736770691995</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>75.94473791141813</v>
+        <v>84.73541383989145</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>75.61966680211296</v>
+        <v>85.278154681139753</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>75.863470134091841</v>
+        <v>84.803256445047495</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>73.750507923608282</v>
+        <v>87.584803256445042</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>73.750507923608282</v>
+        <v>87.652645861601087</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>74.034945144250315</v>
+        <v>87.788331071913163</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>80.130028443722068</v>
+        <v>88.534599728629587</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>79.479886225111741</v>
+        <v>88.602442333785618</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>77.529459569280775</v>
+        <v>88.805970149253739</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>71.515644047135311</v>
+        <v>81.682496607869737</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>73.994311255587164</v>
+        <v>85.549525101763919</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>73.994311255587164</v>
+        <v>85.753052917232026</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>75.497765136123533</v>
+        <v>83.175033921302571</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>75.61966680211296</v>
+        <v>83.175033921302571</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>79.195449004469737</v>
+        <v>86.36363636363636</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>75.538399024786671</v>
+        <v>83.039348710990495</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>75.416497358797244</v>
+        <v>83.10719131614654</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>76.229175132060135</v>
+        <v>85.006784260515602</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>74.603819585534339</v>
+        <v>87.584803256445042</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>74.31938236489232</v>
+        <v>87.042062415196739</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>74.725721251523765</v>
+        <v>87.24559023066486</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>73.91304347826086</v>
+        <v>86.770691994572587</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>74.197480698902879</v>
+        <v>86.499321573948436</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>73.262901259650548</v>
+        <v>86.36363636363636</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>72.81592848435595</v>
+        <v>86.635006784260511</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>72.450223486387642</v>
+        <v>83.310719131614647</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>72.978464039008529</v>
+        <v>86.770691994572587</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -123,247 +126,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>86.227951153324284</v>
+        <v>73.992673992674</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>84.396200814111268</v>
+        <v>73.504273504273513</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>84.871099050203526</v>
+        <v>73.544973544973544</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>83.175033921302571</v>
+        <v>69.108669108669105</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>87.449118046132966</v>
+        <v>71.794871794871796</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>89.620081411126179</v>
+        <v>73.056573056573058</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>87.788331071913163</v>
+        <v>73.748473748473756</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>87.856173677069208</v>
+        <v>74.277574277574274</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>87.924016282225239</v>
+        <v>73.341473341473346</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>87.924016282225239</v>
+        <v>73.015873015873012</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>89.552238805970148</v>
+        <v>74.155474155474153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>89.687924016282224</v>
+        <v>76.923076923076934</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>88.059701492537314</v>
+        <v>72.730972730972738</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>88.12754409769336</v>
+        <v>73.504273504273513</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>88.059701492537314</v>
+        <v>72.771672771672769</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>87.652645861601087</v>
+        <v>75.091575091575095</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>89.891451831750331</v>
+        <v>76.353276353276357</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>89.891451831750331</v>
+        <v>76.109076109076113</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>85.413839891451843</v>
+        <v>75.213675213675216</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>80.936227951153327</v>
+        <v>72.527472527472526</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>85.61736770691995</v>
+        <v>75.295075295075293</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>84.73541383989145</v>
+        <v>75.986975986975992</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>85.278154681139753</v>
+        <v>75.661375661375658</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>84.803256445047495</v>
+        <v>75.905575905575901</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>87.584803256445042</v>
+        <v>73.789173789173788</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>87.652645861601087</v>
+        <v>73.789173789173788</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>87.788331071913163</v>
+        <v>74.074074074074076</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>88.534599728629587</v>
+        <v>80.179080179080174</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>88.602442333785618</v>
+        <v>79.527879527879534</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>88.805970149253739</v>
+        <v>77.574277574277573</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>81.682496607869737</v>
+        <v>71.550671550671552</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>85.549525101763919</v>
+        <v>74.033374033374031</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>85.753052917232026</v>
+        <v>74.033374033374031</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>83.175033921302571</v>
+        <v>75.539275539275536</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>83.175033921302571</v>
+        <v>75.661375661375658</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>86.36363636363636</v>
+        <v>79.242979242979246</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>83.039348710990495</v>
+        <v>75.579975579975581</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>83.10719131614654</v>
+        <v>75.45787545787546</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>85.006784260515602</v>
+        <v>76.271876271876266</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>87.584803256445042</v>
+        <v>74.643874643874639</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>87.042062415196739</v>
+        <v>74.358974358974365</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>87.24559023066486</v>
+        <v>74.765974765974761</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>86.770691994572587</v>
+        <v>73.951973951973955</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>86.499321573948436</v>
+        <v>74.236874236874243</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>86.36363636363636</v>
+        <v>73.300773300773301</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>86.635006784260511</v>
+        <v>72.85307285307286</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>83.310719131614647</v>
+        <v>72.486772486772495</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>86.770691994572587</v>
+        <v>73.015873015873012</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -126,7 +129,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
@@ -13,7 +13,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -129,247 +141,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>73.992673992674</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>73.504273504273513</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>73.544973544973544</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>69.108669108669105</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>71.794871794871796</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>73.056573056573058</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>73.748473748473756</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>74.277574277574274</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>73.341473341473346</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>73.015873015873012</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>74.155474155474153</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>76.923076923076934</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>72.730972730972738</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>73.504273504273513</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>72.771672771672769</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>75.091575091575095</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>76.353276353276357</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>76.109076109076113</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>75.213675213675216</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>72.527472527472526</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>75.295075295075293</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>75.986975986975992</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>75.661375661375658</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>75.905575905575901</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>73.789173789173788</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>73.789173789173788</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>74.074074074074076</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>80.179080179080174</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>79.527879527879534</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>77.574277574277573</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>71.550671550671552</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>74.033374033374031</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>74.033374033374031</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>75.539275539275536</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>75.661375661375658</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>79.242979242979246</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>75.579975579975581</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>75.45787545787546</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>76.271876271876266</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>74.643874643874639</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>74.358974358974365</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>74.765974765974761</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>73.951973951973955</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>74.236874236874243</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>73.300773300773301</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>72.85307285307286</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>72.486772486772495</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>73.015873015873012</v>
+        <v>48.026048026048024</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -141,7 +147,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -147,247 +156,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>48.026048026048024</v>
+        <v>99.430199430199423</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>48.026048026048024</v>
+        <v>99.430199430199423</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>48.026048026048024</v>
+        <v>99.430199430199423</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>48.026048026048024</v>
+        <v>99.470899470899468</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>48.026048026048024</v>
+        <v>99.470899470899468</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>48.026048026048024</v>
+        <v>99.470899470899468</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>48.026048026048024</v>
+        <v>99.26739926739927</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>48.026048026048024</v>
+        <v>99.26739926739927</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>48.026048026048024</v>
+        <v>99.26739926739927</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>48.026048026048024</v>
+        <v>99.26739926739927</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>48.026048026048024</v>
+        <v>98.697598697598693</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>48.026048026048024</v>
+        <v>99.26739926739927</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>48.026048026048024</v>
+        <v>99.348799348799346</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>48.026048026048024</v>
+        <v>99.26739926739927</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>48.026048026048024</v>
+        <v>99.348799348799346</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>48.026048026048024</v>
+        <v>99.26739926739927</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>48.026048026048024</v>
+        <v>99.26739926739927</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>48.026048026048024</v>
+        <v>99.26739926739927</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>48.026048026048024</v>
+        <v>99.674399674399666</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>48.026048026048024</v>
+        <v>99.430199430199423</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>48.026048026048024</v>
+        <v>99.430199430199423</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>48.026048026048024</v>
+        <v>99.430199430199423</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>48.026048026048024</v>
+        <v>99.430199430199423</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>48.026048026048024</v>
+        <v>99.430199430199423</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>48.026048026048024</v>
+        <v>99.308099308099301</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>48.026048026048024</v>
+        <v>99.26739926739927</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>48.026048026048024</v>
+        <v>99.308099308099301</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>48.026048026048024</v>
+        <v>99.348799348799346</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>48.026048026048024</v>
+        <v>99.26739926739927</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>48.026048026048024</v>
+        <v>99.348799348799346</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>48.026048026048024</v>
+        <v>99.430199430199423</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>48.026048026048024</v>
+        <v>99.470899470899468</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>48.026048026048024</v>
+        <v>99.430199430199423</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>48.026048026048024</v>
+        <v>99.470899470899468</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>48.026048026048024</v>
+        <v>99.430199430199423</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>48.026048026048024</v>
+        <v>99.348799348799346</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>48.026048026048024</v>
+        <v>99.470899470899468</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>48.026048026048024</v>
+        <v>99.470899470899468</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>48.026048026048024</v>
+        <v>99.470899470899468</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>48.026048026048024</v>
+        <v>99.26739926739927</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>48.026048026048024</v>
+        <v>99.26739926739927</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>48.026048026048024</v>
+        <v>99.348799348799346</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>48.026048026048024</v>
+        <v>99.348799348799346</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>48.026048026048024</v>
+        <v>99.348799348799346</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>48.026048026048024</v>
+        <v>99.348799348799346</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>48.026048026048024</v>
+        <v>99.348799348799346</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>48.026048026048024</v>
+        <v>99.26739926739927</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>48.026048026048024</v>
+        <v>99.348799348799346</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -156,247 +159,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>99.430199430199423</v>
+        <v>75.498575498575491</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>99.430199430199423</v>
+        <v>75.213675213675216</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>99.430199430199423</v>
+        <v>73.382173382173377</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>99.470899470899468</v>
+        <v>74.114774114774121</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>99.470899470899468</v>
+        <v>74.31827431827432</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>99.470899470899468</v>
+        <v>75.172975172975171</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>99.26739926739927</v>
+        <v>73.911273911273909</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>99.26739926739927</v>
+        <v>74.643874643874639</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>99.26739926739927</v>
+        <v>73.870573870573878</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>99.26739926739927</v>
+        <v>73.707773707773711</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>98.697598697598693</v>
+        <v>74.847374847374851</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>99.26739926739927</v>
+        <v>75.091575091575095</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>99.348799348799346</v>
+        <v>74.521774521774518</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>99.26739926739927</v>
+        <v>75.091575091575095</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>99.348799348799346</v>
+        <v>74.72527472527473</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>99.26739926739927</v>
+        <v>74.074074074074076</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>99.26739926739927</v>
+        <v>75.132275132275126</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>99.26739926739927</v>
+        <v>75.172975172975171</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>99.674399674399666</v>
+        <v>77.289377289377299</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>99.430199430199423</v>
+        <v>75.132275132275126</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>99.430199430199423</v>
+        <v>77.411477411477421</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>99.430199430199423</v>
+        <v>75.376475376475369</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>99.430199430199423</v>
+        <v>74.114774114774121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>99.430199430199423</v>
+        <v>75.05087505087505</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>99.308099308099301</v>
+        <v>74.72527472527473</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>99.26739926739927</v>
+        <v>74.521774521774518</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>99.308099308099301</v>
+        <v>74.196174196174198</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>99.348799348799346</v>
+        <v>74.847374847374851</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>99.26739926739927</v>
+        <v>73.911273911273909</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>99.348799348799346</v>
+        <v>74.562474562474563</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>99.430199430199423</v>
+        <v>73.667073667073666</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>99.470899470899468</v>
+        <v>73.667073667073666</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>99.430199430199423</v>
+        <v>73.422873422873423</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>99.470899470899468</v>
+        <v>74.440374440374441</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>99.430199430199423</v>
+        <v>74.643874643874639</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>99.348799348799346</v>
+        <v>79.853479853479854</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>99.470899470899468</v>
+        <v>73.748473748473756</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>99.470899470899468</v>
+        <v>74.074074074074076</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>99.470899470899468</v>
+        <v>74.928774928774928</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>99.26739926739927</v>
+        <v>74.521774521774518</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>99.26739926739927</v>
+        <v>75.172975172975171</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>99.348799348799346</v>
+        <v>74.684574684574685</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>99.348799348799346</v>
+        <v>74.684574684574685</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>99.348799348799346</v>
+        <v>75.132275132275126</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>99.348799348799346</v>
+        <v>73.992673992674</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>99.348799348799346</v>
+        <v>73.544973544973544</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>99.26739926739927</v>
+        <v>75.986975986975992</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>99.348799348799346</v>
+        <v>74.033374033374031</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
@@ -13,7 +13,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -159,247 +177,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>75.498575498575491</v>
+        <v>71.663619744058508</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>75.213675213675216</v>
+        <v>71.343692870201096</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>73.382173382173377</v>
+        <v>71.709323583180989</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>74.114774114774121</v>
+        <v>70.292504570383912</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>74.31827431827432</v>
+        <v>69.149908592321751</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>75.172975172975171</v>
+        <v>70.338208409506393</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>73.911273911273909</v>
+        <v>68.510054844606955</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>74.643874643874639</v>
+        <v>69.652650822669102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>73.870573870573878</v>
+        <v>69.058500914076788</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>73.707773707773711</v>
+        <v>69.012797074954292</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>74.847374847374851</v>
+        <v>70.292504570383912</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>75.091575091575095</v>
+        <v>70.566727605118828</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>74.521774521774518</v>
+        <v>69.744058500914079</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>75.091575091575095</v>
+        <v>72.486288848263257</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>74.72527472527473</v>
+        <v>69.9725776965265</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>74.074074074074076</v>
+        <v>69.698354661791598</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>75.132275132275126</v>
+        <v>70.795246800731263</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>75.172975172975171</v>
+        <v>70.658135283363805</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>77.289377289377299</v>
+        <v>75.091407678244977</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>75.132275132275126</v>
+        <v>72.760511882998173</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>77.411477411477421</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>75.376475376475369</v>
+        <v>68.967093235831811</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>74.114774114774121</v>
+        <v>67.093235831809878</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>75.05087505087505</v>
+        <v>69.378427787934186</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>74.72527472527473</v>
+        <v>69.515539305301644</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>74.521774521774518</v>
+        <v>70.566727605118828</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>74.196174196174198</v>
+        <v>69.78976234003656</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>74.847374847374851</v>
+        <v>73.308957952468006</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>73.911273911273909</v>
+        <v>73.263254113345525</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>74.562474562474563</v>
+        <v>72.806215722120655</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>73.667073667073666</v>
+        <v>68.235831809872025</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>73.667073667073666</v>
+        <v>69.378427787934186</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>73.422873422873423</v>
+        <v>71.06946983546618</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>74.440374440374441</v>
+        <v>70.292504570383912</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>74.643874643874639</v>
+        <v>70.292504570383912</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>79.853479853479854</v>
+        <v>72.577696526508234</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>73.748473748473756</v>
+        <v>69.515539305301644</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>74.074074074074076</v>
+        <v>69.78976234003656</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>74.928774928774928</v>
+        <v>70.42961608775137</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>74.521774521774518</v>
+        <v>69.78976234003656</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>75.172975172975171</v>
+        <v>70.201096892138935</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>74.684574684574685</v>
+        <v>69.881170018281537</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>74.684574684574685</v>
+        <v>69.469835466179163</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>75.132275132275126</v>
+        <v>70.201096892138935</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>73.992673992674</v>
+        <v>71.800731261425966</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>73.544973544973544</v>
+        <v>69.012797074954292</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>75.986975986975992</v>
+        <v>68.921389396709316</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>74.033374033374031</v>
+        <v>70.978062157221217</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
@@ -13,7 +13,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -177,247 +189,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>71.663619744058508</v>
+        <v>76.462522851919559</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>71.343692870201096</v>
+        <v>76.416819012797077</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>71.709323583180989</v>
+        <v>76.50822669104204</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>70.292504570383912</v>
+        <v>75.822669104204749</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>69.149908592321751</v>
+        <v>74.588665447897625</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>70.338208409506393</v>
+        <v>75.914076782449726</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>68.510054844606955</v>
+        <v>74.680073126142602</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>69.652650822669102</v>
+        <v>75.457038391224856</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>69.058500914076788</v>
+        <v>74.634369287020107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>69.012797074954292</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>70.292504570383912</v>
+        <v>75.365630712979893</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>70.566727605118828</v>
+        <v>75.959780621572222</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>69.744058500914079</v>
+        <v>74.954296160877504</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>72.486288848263257</v>
+        <v>75.776965265082268</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>69.9725776965265</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>69.698354661791598</v>
+        <v>74.497257769652649</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>70.795246800731263</v>
+        <v>75.731261425959786</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>70.658135283363805</v>
+        <v>75.776965265082268</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>75.091407678244977</v>
+        <v>77.559414990859239</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>72.760511882998173</v>
+        <v>77.60511882998172</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>75</v>
+        <v>77.879341864716636</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>68.967093235831811</v>
+        <v>77.330895795246803</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>67.093235831809878</v>
+        <v>74.634369287020107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>69.378427787934186</v>
+        <v>77.239488117001827</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>69.515539305301644</v>
+        <v>74.634369287020107</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>70.566727605118828</v>
+        <v>75.457038391224856</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>69.78976234003656</v>
+        <v>74.725776965265084</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>73.308957952468006</v>
+        <v>75.594149908592328</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>73.263254113345525</v>
+        <v>75.502742230347351</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>72.806215722120655</v>
+        <v>74.862888482632542</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>68.235831809872025</v>
+        <v>73.994515539305311</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>69.378427787934186</v>
+        <v>74.314442413162709</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>71.06946983546618</v>
+        <v>74.040219378427778</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>70.292504570383912</v>
+        <v>75.045703839122496</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>70.292504570383912</v>
+        <v>75.045703839122496</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>72.577696526508234</v>
+        <v>81.032906764168189</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>69.515539305301644</v>
+        <v>74.81718464351006</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>69.78976234003656</v>
+        <v>74.81718464351006</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>70.42961608775137</v>
+        <v>75.685557586837291</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>69.78976234003656</v>
+        <v>74.725776965265084</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>70.201096892138935</v>
+        <v>75.228519195612435</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>69.881170018281537</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>69.469835466179163</v>
+        <v>75.091407678244977</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>70.201096892138935</v>
+        <v>75.274223034734916</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>71.800731261425966</v>
+        <v>74.954296160877504</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>69.012797074954292</v>
+        <v>74.268738574040214</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>68.921389396709316</v>
+        <v>76.051188299817184</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>70.978062157221217</v>
+        <v>75.914076782449726</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -189,247 +192,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>76.462522851919559</v>
+        <v>71.160877513711156</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>76.416819012797077</v>
+        <v>70.749542961608782</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>76.50822669104204</v>
+        <v>68.647166361974413</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>75.822669104204749</v>
+        <v>68.875685557586834</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>74.588665447897625</v>
+        <v>69.104204753199269</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>75.914076782449726</v>
+        <v>70.292504570383912</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>74.680073126142602</v>
+        <v>68.235831809872025</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>75.457038391224856</v>
+        <v>69.652650822669102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>74.634369287020107</v>
+        <v>68.372943327239483</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>75</v>
+        <v>68.372943327239483</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>75.365630712979893</v>
+        <v>70.018281535648995</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>75.959780621572222</v>
+        <v>70.292504570383912</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>74.954296160877504</v>
+        <v>68.647166361974413</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>75.776965265082268</v>
+        <v>71.709323583180989</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>75</v>
+        <v>69.012797074954292</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>74.497257769652649</v>
+        <v>69.606946983546607</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>75.731261425959786</v>
+        <v>70.795246800731263</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>75.776965265082268</v>
+        <v>70.566727605118828</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>77.559414990859239</v>
+        <v>74.81718464351006</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>77.60511882998172</v>
+        <v>69.926873857404033</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>77.879341864716636</v>
+        <v>74.771480804387565</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>77.330895795246803</v>
+        <v>65.996343692870198</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>74.634369287020107</v>
+        <v>66.727605118829985</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>77.239488117001827</v>
+        <v>66.49908592321755</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>74.634369287020107</v>
+        <v>69.424131627056667</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>75.457038391224856</v>
+        <v>69.561243144424139</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>74.725776965265084</v>
+        <v>69.287020109689209</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>75.594149908592328</v>
+        <v>73.03473491773309</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>75.502742230347351</v>
+        <v>72.166361974405845</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>74.862888482632542</v>
+        <v>72.714808043875692</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>73.994515539305311</v>
+        <v>68.098720292504566</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>74.314442413162709</v>
+        <v>68.647166361974413</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>74.040219378427778</v>
+        <v>68.418647166361978</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>75.045703839122496</v>
+        <v>69.606946983546607</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>75.045703839122496</v>
+        <v>69.78976234003656</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>81.032906764168189</v>
+        <v>75.319926873857398</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>74.81718464351006</v>
+        <v>69.058500914076788</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>74.81718464351006</v>
+        <v>69.744058500914079</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>75.685557586837291</v>
+        <v>70.292504570383912</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>74.725776965265084</v>
+        <v>69.606946983546607</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>75.228519195612435</v>
+        <v>70.155393053016454</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>75</v>
+        <v>69.744058500914079</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>75.091407678244977</v>
+        <v>66.727605118829985</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>75.274223034734916</v>
+        <v>70.109689213893972</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>74.954296160877504</v>
+        <v>65.813528336380259</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>74.268738574040214</v>
+        <v>68.601462522851918</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>76.051188299817184</v>
+        <v>68.921389396709316</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>75.914076782449726</v>
+        <v>69.652650822669102</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -192,7 +195,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -195,7 +204,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -204,7 +207,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -207,7 +210,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -210,7 +216,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -216,7 +219,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -219,7 +228,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
@@ -13,7 +13,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -228,247 +240,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>71.160877513711156</v>
+        <v>73.354661791590487</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>70.749542961608782</v>
+        <v>72.577696526508234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>68.647166361974413</v>
+        <v>71.023765996343684</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>68.875685557586834</v>
+        <v>71.435100548446073</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>69.104204753199269</v>
+        <v>71.572212065813517</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>70.292504570383912</v>
+        <v>72.760511882998173</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>68.235831809872025</v>
+        <v>70.42961608775137</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>69.652650822669102</v>
+        <v>71.297989031078615</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>68.372943327239483</v>
+        <v>70.155393053016454</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>68.372943327239483</v>
+        <v>70.292504570383912</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>70.018281535648995</v>
+        <v>74.908592321755023</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>70.292504570383912</v>
+        <v>75.365630712979893</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>68.647166361974413</v>
+        <v>70.338208409506393</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>71.709323583180989</v>
+        <v>71.06946983546618</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>69.012797074954292</v>
+        <v>70.749542961608782</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>69.606946983546607</v>
+        <v>73.354661791590487</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>70.795246800731263</v>
+        <v>74.954296160877504</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>70.566727605118828</v>
+        <v>75.045703839122496</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>74.81718464351006</v>
+        <v>73.171846435100548</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>69.926873857404033</v>
+        <v>70.886654478976226</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>74.771480804387565</v>
+        <v>73.720292504570381</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>65.996343692870198</v>
+        <v>71.755027422303471</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>66.727605118829985</v>
+        <v>73.628884826325418</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>66.49908592321755</v>
+        <v>73.400365630712983</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>69.424131627056667</v>
+        <v>71.572212065813517</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>69.561243144424139</v>
+        <v>71.480804387568554</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>69.287020109689209</v>
+        <v>71.206581352833638</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>73.03473491773309</v>
+        <v>72.669104204753197</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>72.166361974405845</v>
+        <v>71.755027422303471</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>72.714808043875692</v>
+        <v>71.846435100548447</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>68.098720292504566</v>
+        <v>70.338208409506393</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>68.647166361974413</v>
+        <v>70.383912248628889</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>68.418647166361978</v>
+        <v>70.475319926873851</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>69.606946983546607</v>
+        <v>71.846435100548447</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>69.78976234003656</v>
+        <v>72.166361974405845</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>75.319926873857398</v>
+        <v>76.279707495429619</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>69.058500914076788</v>
+        <v>71.206581352833638</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>69.744058500914079</v>
+        <v>71.572212065813517</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>70.292504570383912</v>
+        <v>72.166361974405845</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>69.606946983546607</v>
+        <v>71.709323583180989</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>70.155393053016454</v>
+        <v>72.212065813528341</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>69.744058500914079</v>
+        <v>71.93784277879341</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>66.727605118829985</v>
+        <v>71.663619744058508</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>70.109689213893972</v>
+        <v>72.257769652650822</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>65.813528336380259</v>
+        <v>70.749542961608782</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>68.601462522851918</v>
+        <v>70.749542961608782</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>68.921389396709316</v>
+        <v>72.943327239488127</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>69.652650822669102</v>
+        <v>71.06946983546618</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G.xlsx
@@ -13,7 +13,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -240,247 +258,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>73.354661791590487</v>
+        <v>77.376599634369285</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>72.577696526508234</v>
+        <v>76.736745886654475</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>71.023765996343684</v>
+        <v>74.908592321755023</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>71.435100548446073</v>
+        <v>75.731261425959786</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>71.572212065813517</v>
+        <v>75.731261425959786</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>72.760511882998173</v>
+        <v>77.056672760511873</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>70.42961608775137</v>
+        <v>74.908592321755023</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>71.297989031078615</v>
+        <v>75.822669104204749</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>70.155393053016454</v>
+        <v>74.725776965265084</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>70.292504570383912</v>
+        <v>74.725776965265084</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>74.908592321755023</v>
+        <v>75.776965265082268</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>75.365630712979893</v>
+        <v>76.782449725776971</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>70.338208409506393</v>
+        <v>75.457038391224856</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>71.06946983546618</v>
+        <v>76.051188299817184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>70.749542961608782</v>
+        <v>75.822669104204749</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>73.354661791590487</v>
+        <v>75.457038391224856</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>74.954296160877504</v>
+        <v>76.691042047531994</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>75.045703839122496</v>
+        <v>76.828153564899452</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>73.171846435100548</v>
+        <v>78.199268738574034</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>70.886654478976226</v>
+        <v>76.005484460694689</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>73.720292504570381</v>
+        <v>78.382084095063988</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>71.755027422303471</v>
+        <v>75.457038391224856</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>73.628884826325418</v>
+        <v>75.548446069469833</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>73.400365630712983</v>
+        <v>75.731261425959786</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>71.572212065813517</v>
+        <v>75.914076782449726</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>71.480804387568554</v>
+        <v>75.868372943327245</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>71.206581352833638</v>
+        <v>75.594149908592328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>72.669104204753197</v>
+        <v>76.691042047531994</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>71.755027422303471</v>
+        <v>75.822669104204749</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>71.846435100548447</v>
+        <v>76.005484460694689</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>70.338208409506393</v>
+        <v>74.771480804387565</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>70.383912248628889</v>
+        <v>74.862888482632542</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>70.475319926873851</v>
+        <v>74.908592321755023</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>71.846435100548447</v>
+        <v>75.685557586837291</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>72.166361974405845</v>
+        <v>75.914076782449726</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>76.279707495429619</v>
+        <v>81.215722120658143</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>71.206581352833638</v>
+        <v>74.497257769652649</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>71.572212065813517</v>
+        <v>74.954296160877504</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>72.166361974405845</v>
+        <v>75.822669104204749</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>71.709323583180989</v>
+        <v>76.09689213893968</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>72.212065813528341</v>
+        <v>76.553930530164536</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>71.93784277879341</v>
+        <v>76.234003656307124</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>71.663619744058508</v>
+        <v>76.279707495429619</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>72.257769652650822</v>
+        <v>76.645338208409513</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>70.749542961608782</v>
+        <v>75.274223034734916</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>70.749542961608782</v>
+        <v>75.18281535648994</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>72.943327239488127</v>
+        <v>77.559414990859239</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>71.06946983546618</v>
+        <v>75.639853747714795</v>
       </c>
     </row>
   </sheetData>
